--- a/DPLKINV001-005 - Setup Custodian Investasi - General Tambah, Ubah, View Detil & Hapus Data/Report/Report/Default.xlsx
+++ b/DPLKINV001-005 - Setup Custodian Investasi - General Tambah, Ubah, View Detil & Hapus Data/Report/Report/Default.xlsx
@@ -753,26 +753,53 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -780,40 +807,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1122,30 +1122,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="11.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.078125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.078125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1">
@@ -1238,10 +1238,10 @@
       <c r="C2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>118</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1290,7 +1290,7 @@
       <c r="Y2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="19"/>
+      <c r="Z2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1311,32 +1311,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="16" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="18" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="18" customWidth="1"/>
-    <col min="24" max="24" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" style="18" customWidth="1"/>
-    <col min="26" max="26" width="9.078125" style="18" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" style="18" customWidth="1"/>
-    <col min="28" max="28" width="22.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.078125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="15" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="15" customWidth="1"/>
+    <col min="24" max="24" width="14" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" style="15" customWidth="1"/>
+    <col min="26" max="26" width="9.078125" style="15" customWidth="1"/>
+    <col min="27" max="27" width="16.5703125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="22.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.078125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" customFormat="1">
@@ -1453,7 +1453,7 @@
       <c r="I2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="27" t="s">
         <v>84</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -1468,7 +1468,7 @@
       <c r="N2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>97</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -1477,7 +1477,7 @@
       <c r="Q2" s="5">
         <v>99999999</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="22" t="s">
         <v>65</v>
       </c>
       <c r="S2" s="5" t="s">
@@ -1507,7 +1507,7 @@
       <c r="AA2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AB2" s="24" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="I3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="27" t="s">
         <v>84</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="20"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -1563,7 +1563,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="22"/>
+      <c r="AB3" s="13"/>
     </row>
     <row r="4" ht="45">
       <c r="A4" s="6" t="s">
@@ -1593,7 +1593,7 @@
       <c r="I4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="27" t="s">
         <v>84</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -1606,7 +1606,7 @@
         <v>124</v>
       </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="20"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
@@ -1619,7 +1619,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="22"/>
+      <c r="AB4" s="13"/>
     </row>
     <row r="5" ht="45">
       <c r="A5" s="6" t="s">
@@ -1649,7 +1649,7 @@
       <c r="I5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="27" t="s">
         <v>84</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="20"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -1673,11 +1673,11 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="22"/>
+      <c r="AB5" s="13"/>
     </row>
     <row r="6" ht="15">
       <c r="A6" s="2"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1703,11 +1703,11 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="22"/>
+      <c r="AB6" s="13"/>
     </row>
     <row r="7" ht="15">
       <c r="A7" s="2"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1733,7 +1733,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="22"/>
+      <c r="AB7" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1754,7 +1754,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="12" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
@@ -1773,49 +1773,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.078125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.140625" style="26" customWidth="1"/>
-    <col min="13" max="14" width="61" style="26" customWidth="1"/>
-    <col min="15" max="15" width="47" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="63.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="103.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="69.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="61" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="63.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="51" style="26" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="49.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="59.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="49.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="53.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="56.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="57.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="53.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="58.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="62.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="51.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="57.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="57.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="53.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="35.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="58.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.078125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="9.078125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.140625" style="25" customWidth="1"/>
+    <col min="13" max="14" width="61" style="25" customWidth="1"/>
+    <col min="15" max="15" width="47" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="63.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="103.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="69.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="61" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="63.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="51" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="49.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="59.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="49.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="53.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="56.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="57.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="53.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="58.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="62.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="51.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="57.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="57.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="53.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="58.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.078125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1">
@@ -1965,7 +1965,7 @@
       <c r="B2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="16">
         <v>192168132154</v>
       </c>
       <c r="D2" s="8" t="str">
@@ -1974,10 +1974,10 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
@@ -1993,7 +1993,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="13"/>
+      <c r="V2" s="21"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -2017,7 +2017,7 @@
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
-      <c r="AT2" s="21"/>
+      <c r="AT2" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
